--- a/study/Codelists/input/codelist_anti_diabetic.xlsx
+++ b/study/Codelists/input/codelist_anti_diabetic.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC09B061-FAFB-42CD-B88C-3704B88FC2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91C070-B9A6-4B42-93EA-F1390026A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{96ABCE75-23BB-4300-9B8B-196D7DAFD5A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{96ABCE75-23BB-4300-9B8B-196D7DAFD5A9}"/>
   </bookViews>
   <sheets>
     <sheet name="glp1" sheetId="8" r:id="rId1"/>
     <sheet name="sglt2" sheetId="9" r:id="rId2"/>
     <sheet name="dpp4" sheetId="10" r:id="rId3"/>
+    <sheet name="dm" sheetId="11" r:id="rId4"/>
+    <sheet name="metformin" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>concept_id</t>
   </si>
@@ -201,16 +203,40 @@
   </si>
   <si>
     <t>A10BH08</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Disorder</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>metformin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464646"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,8 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,13 +602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A0C99-EF02-4C98-9F34-A52E9842F8FC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -594,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +636,7 @@
         <v>1583722</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -622,7 +650,7 @@
         <v>40170911</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -636,7 +664,7 @@
         <v>44506754</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,7 +678,7 @@
         <v>44816332</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -664,7 +692,7 @@
         <v>45774435</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -678,7 +706,7 @@
         <v>793143</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -705,9 +733,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -721,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -735,7 +763,7 @@
         <v>44785829</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -749,7 +777,7 @@
         <v>43526465</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -763,7 +791,7 @@
         <v>45774751</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -777,7 +805,7 @@
         <v>793293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -791,7 +819,7 @@
         <v>43009020</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -805,7 +833,7 @@
         <v>1201369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -819,7 +847,7 @@
         <v>36856236</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -833,7 +861,7 @@
         <v>1301517</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -857,12 +885,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -876,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -890,7 +918,7 @@
         <v>1580747</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -904,7 +932,7 @@
         <v>19122137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -918,7 +946,7 @@
         <v>40166035</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -932,7 +960,7 @@
         <v>43013884</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -946,7 +974,7 @@
         <v>40239216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -960,7 +988,7 @@
         <v>43009089</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -974,7 +1002,7 @@
         <v>43009051</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -993,12 +1021,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA2E24B-F461-4FB0-BF97-EDB504F43448}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>201820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1785C3A0-860A-441C-A514-198BA8BC2F18}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>1503297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="879f2d9c-c6ea-4fbc-bdf9-42adfb08fb32" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,26 +1273,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="879f2d9c-c6ea-4fbc-bdf9-42adfb08fb32" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C15F02-5CA7-4414-86F6-32D6E2736000}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E48DDD8C-81A0-46AE-8A9C-83A066003DE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="879f2d9c-c6ea-4fbc-bdf9-42adfb08fb32"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1213,9 +1307,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E48DDD8C-81A0-46AE-8A9C-83A066003DE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C15F02-5CA7-4414-86F6-32D6E2736000}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="879f2d9c-c6ea-4fbc-bdf9-42adfb08fb32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>